--- a/Code/Results/Cases/Case_1_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9029488167478528</v>
+        <v>1.029905206023092</v>
       </c>
       <c r="D2">
-        <v>1.013721669161466</v>
+        <v>1.04245337638738</v>
       </c>
       <c r="E2">
-        <v>0.9200561239193777</v>
+        <v>1.029388595231997</v>
       </c>
       <c r="F2">
-        <v>0.9892333664042128</v>
+        <v>1.048110510162208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040337826329482</v>
+        <v>1.034225811694147</v>
       </c>
       <c r="J2">
-        <v>0.9284778016419696</v>
+        <v>1.035049396683044</v>
       </c>
       <c r="K2">
-        <v>1.024993092806678</v>
+        <v>1.045230020795166</v>
       </c>
       <c r="L2">
-        <v>0.9327542551424612</v>
+        <v>1.032202650128811</v>
       </c>
       <c r="M2">
-        <v>1.000844763788681</v>
+        <v>1.050871269485186</v>
       </c>
       <c r="N2">
-        <v>0.9297963466181935</v>
+        <v>1.036519285548159</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9217713702361091</v>
+        <v>1.032772830575595</v>
       </c>
       <c r="D3">
-        <v>1.019693622922148</v>
+        <v>1.043414495662642</v>
       </c>
       <c r="E3">
-        <v>0.93627515609501</v>
+        <v>1.031899272155623</v>
       </c>
       <c r="F3">
-        <v>0.9991749556206337</v>
+        <v>1.049706511162192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042365561527734</v>
+        <v>1.034452015615956</v>
       </c>
       <c r="J3">
-        <v>0.9446483070380748</v>
+        <v>1.037548471238826</v>
       </c>
       <c r="K3">
-        <v>1.030080571696627</v>
+        <v>1.04600158099811</v>
       </c>
       <c r="L3">
-        <v>0.9477940158567213</v>
+        <v>1.034516885772671</v>
       </c>
       <c r="M3">
-        <v>1.009818403939789</v>
+        <v>1.052277221066201</v>
       </c>
       <c r="N3">
-        <v>0.9459898159867444</v>
+        <v>1.039021909076458</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9330644881437192</v>
+        <v>1.034616769315617</v>
       </c>
       <c r="D4">
-        <v>1.023335336640835</v>
+        <v>1.044032237793513</v>
       </c>
       <c r="E4">
-        <v>0.9460203387608244</v>
+        <v>1.033513183124531</v>
       </c>
       <c r="F4">
-        <v>1.005204043299836</v>
+        <v>1.05073242178859</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043581162064157</v>
+        <v>1.034595437192268</v>
       </c>
       <c r="J4">
-        <v>0.9543505451989525</v>
+        <v>1.039154262702065</v>
       </c>
       <c r="K4">
-        <v>1.033160051869505</v>
+        <v>1.046496058063569</v>
       </c>
       <c r="L4">
-        <v>0.9568170806738189</v>
+        <v>1.036003453037635</v>
       </c>
       <c r="M4">
-        <v>1.015240063265839</v>
+        <v>1.053179691866135</v>
       </c>
       <c r="N4">
-        <v>0.9557058324386726</v>
+        <v>1.040629980947761</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9376298488414799</v>
+        <v>1.035389261183599</v>
       </c>
       <c r="D5">
-        <v>1.024819335079792</v>
+        <v>1.044290954935468</v>
       </c>
       <c r="E5">
-        <v>0.9499625733805646</v>
+        <v>1.034189185804352</v>
       </c>
       <c r="F5">
-        <v>1.007654203978548</v>
+        <v>1.051162117410158</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044071632146391</v>
+        <v>1.034655031764992</v>
       </c>
       <c r="J5">
-        <v>0.9582723478665532</v>
+        <v>1.03982670665717</v>
       </c>
       <c r="K5">
-        <v>1.034409834669365</v>
+        <v>1.046702808737662</v>
       </c>
       <c r="L5">
-        <v>0.9604640495252639</v>
+        <v>1.036625861268074</v>
       </c>
       <c r="M5">
-        <v>1.017438813750015</v>
+        <v>1.053557380616171</v>
       </c>
       <c r="N5">
-        <v>0.9596332045158985</v>
+        <v>1.041303379850413</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9383864413981856</v>
+        <v>1.035518809896693</v>
       </c>
       <c r="D6">
-        <v>1.025065906646325</v>
+        <v>1.044334337570396</v>
       </c>
       <c r="E6">
-        <v>0.9506160358070146</v>
+        <v>1.034302545824282</v>
       </c>
       <c r="F6">
-        <v>1.008060945988626</v>
+        <v>1.051234172477912</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04415284085823</v>
+        <v>1.034664997081711</v>
       </c>
       <c r="J6">
-        <v>0.9589222493865365</v>
+        <v>1.039939460667169</v>
       </c>
       <c r="K6">
-        <v>1.034617199481185</v>
+        <v>1.046737457411951</v>
       </c>
       <c r="L6">
-        <v>0.9610683861791652</v>
+        <v>1.036730218978437</v>
       </c>
       <c r="M6">
-        <v>1.017803560169536</v>
+        <v>1.053620696847821</v>
       </c>
       <c r="N6">
-        <v>0.9602840289705847</v>
+        <v>1.04141629398404</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9331261727276388</v>
+        <v>1.034627101894855</v>
       </c>
       <c r="D7">
-        <v>1.023355343238874</v>
+        <v>1.044035698620732</v>
       </c>
       <c r="E7">
-        <v>0.9460735943356148</v>
+        <v>1.03352222558203</v>
       </c>
       <c r="F7">
-        <v>1.005237100346948</v>
+        <v>1.050738169634745</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043587793659558</v>
+        <v>1.034596236240087</v>
       </c>
       <c r="J7">
-        <v>0.954403536678197</v>
+        <v>1.03916325817696</v>
       </c>
       <c r="K7">
-        <v>1.033176920744796</v>
+        <v>1.046498825085842</v>
       </c>
       <c r="L7">
-        <v>0.956866359936827</v>
+        <v>1.036011779600371</v>
       </c>
       <c r="M7">
-        <v>1.015269746096397</v>
+        <v>1.053184745238929</v>
       </c>
       <c r="N7">
-        <v>0.955758899171896</v>
+        <v>1.040638989197263</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9095141280867658</v>
+        <v>1.030876784060089</v>
       </c>
       <c r="D8">
-        <v>1.015790306599716</v>
+        <v>1.042779063413478</v>
       </c>
       <c r="E8">
-        <v>0.9257097132268634</v>
+        <v>1.030239339667297</v>
       </c>
       <c r="F8">
-        <v>0.9926851396984803</v>
+        <v>1.048651315937416</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04104481764828</v>
+        <v>1.034302872184683</v>
       </c>
       <c r="J8">
-        <v>0.9341176543516057</v>
+        <v>1.035896347512111</v>
       </c>
       <c r="K8">
-        <v>1.026760553176776</v>
+        <v>1.045491771049145</v>
       </c>
       <c r="L8">
-        <v>0.9379998001908804</v>
+        <v>1.032987052528538</v>
       </c>
       <c r="M8">
-        <v>1.00396511565685</v>
+        <v>1.051347942623944</v>
       </c>
       <c r="N8">
-        <v>0.9354442085655772</v>
+        <v>1.037367439144551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8591645662655082</v>
+        <v>1.024175765070426</v>
       </c>
       <c r="D9">
-        <v>1.000352390773738</v>
+        <v>1.040532079170092</v>
       </c>
       <c r="E9">
-        <v>0.8824710201677666</v>
+        <v>1.024369699759634</v>
       </c>
       <c r="F9">
-        <v>0.9666904468738605</v>
+        <v>1.044920364235416</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035662648893598</v>
+        <v>1.033763087697685</v>
       </c>
       <c r="J9">
-        <v>0.8909007889601964</v>
+        <v>1.030050114205575</v>
       </c>
       <c r="K9">
-        <v>1.013439753269565</v>
+        <v>1.043679943256614</v>
       </c>
       <c r="L9">
-        <v>0.8978099009738653</v>
+        <v>1.027570689760299</v>
       </c>
       <c r="M9">
-        <v>0.9803481012125772</v>
+        <v>1.048054114613087</v>
       </c>
       <c r="N9">
-        <v>0.8921659702682687</v>
+        <v>1.031512903516147</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8150152432129477</v>
+        <v>1.019641129920965</v>
       </c>
       <c r="D10">
-        <v>0.9876980598507488</v>
+        <v>1.039011114839104</v>
       </c>
       <c r="E10">
-        <v>0.8448367428138988</v>
+        <v>1.020395202881001</v>
       </c>
       <c r="F10">
-        <v>0.944904727408843</v>
+        <v>1.04239485135655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031087036259988</v>
+        <v>1.033387495338198</v>
       </c>
       <c r="J10">
-        <v>0.8531309423811698</v>
+        <v>1.026087950884335</v>
       </c>
       <c r="K10">
-        <v>1.002293039710073</v>
+        <v>1.042445989439899</v>
       </c>
       <c r="L10">
-        <v>0.8627145862501833</v>
+        <v>1.023897498012934</v>
       </c>
       <c r="M10">
-        <v>0.9603454837219157</v>
+        <v>1.045817756401392</v>
       </c>
       <c r="N10">
-        <v>0.8543424861748379</v>
+        <v>1.027545113468524</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7909478919320377</v>
+        <v>1.017660458292697</v>
       </c>
       <c r="D11">
-        <v>0.9811820256019012</v>
+        <v>1.038346834019006</v>
       </c>
       <c r="E11">
-        <v>0.824462417236559</v>
+        <v>1.018658634070494</v>
       </c>
       <c r="F11">
-        <v>0.9334775657347433</v>
+        <v>1.041291724228018</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028678756101777</v>
+        <v>1.033221040019471</v>
       </c>
       <c r="J11">
-        <v>0.8326202583418928</v>
+        <v>1.024355928084862</v>
       </c>
       <c r="K11">
-        <v>0.9964677662051762</v>
+        <v>1.041905259218235</v>
       </c>
       <c r="L11">
-        <v>0.8436777314862086</v>
+        <v>1.02229123836904</v>
       </c>
       <c r="M11">
-        <v>0.9497733735883213</v>
+        <v>1.044839320702631</v>
       </c>
       <c r="N11">
-        <v>0.8338026746116168</v>
+        <v>1.025810630998009</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.780763032969521</v>
+        <v>1.016922070858163</v>
       </c>
       <c r="D12">
-        <v>0.9785100328408134</v>
+        <v>1.038099214286916</v>
       </c>
       <c r="E12">
-        <v>0.8158753258713605</v>
+        <v>1.018011165627941</v>
       </c>
       <c r="F12">
-        <v>0.9287441475959899</v>
+        <v>1.040880493968373</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027681170744553</v>
+        <v>1.033158629257308</v>
       </c>
       <c r="J12">
-        <v>0.8239614643394118</v>
+        <v>1.023710027205955</v>
       </c>
       <c r="K12">
-        <v>0.9940608619339989</v>
+        <v>1.041703422984996</v>
       </c>
       <c r="L12">
-        <v>0.8356471573340588</v>
+        <v>1.021692153126457</v>
       </c>
       <c r="M12">
-        <v>0.9453768576389785</v>
+        <v>1.044474330889916</v>
       </c>
       <c r="N12">
-        <v>0.8251315841284745</v>
+        <v>1.025163812865769</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7830187134867856</v>
+        <v>1.01708058031561</v>
       </c>
       <c r="D13">
-        <v>0.9790973458604105</v>
+        <v>1.038152369555341</v>
       </c>
       <c r="E13">
-        <v>0.8177752406083338</v>
+        <v>1.018150161184614</v>
       </c>
       <c r="F13">
-        <v>0.9297870878983151</v>
+        <v>1.040968771918835</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027900944833694</v>
+        <v>1.033172043034136</v>
       </c>
       <c r="J13">
-        <v>0.825877998397846</v>
+        <v>1.023848692018978</v>
       </c>
       <c r="K13">
-        <v>0.9945908494924329</v>
+        <v>1.041746762447812</v>
       </c>
       <c r="L13">
-        <v>0.8374243000095235</v>
+        <v>1.021820771131214</v>
       </c>
       <c r="M13">
-        <v>0.9463464662461235</v>
+        <v>1.044552693494984</v>
       </c>
       <c r="N13">
-        <v>0.8270508398851014</v>
+        <v>1.025302674598731</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.790136362276478</v>
+        <v>1.017599478183953</v>
       </c>
       <c r="D14">
-        <v>0.980967230307407</v>
+        <v>1.03832638369336</v>
       </c>
       <c r="E14">
-        <v>0.8237773995237584</v>
+        <v>1.018605164205062</v>
       </c>
       <c r="F14">
-        <v>0.933098128525967</v>
+        <v>1.041257762245263</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028598778441132</v>
+        <v>1.033215893041446</v>
       </c>
       <c r="J14">
-        <v>0.8319298394675841</v>
+        <v>1.024302590273485</v>
       </c>
       <c r="K14">
-        <v>0.9962746831091799</v>
+        <v>1.041888595585226</v>
       </c>
       <c r="L14">
-        <v>0.8430372622640366</v>
+        <v>1.022241768245003</v>
       </c>
       <c r="M14">
-        <v>0.9494213260359103</v>
+        <v>1.044809182499372</v>
       </c>
       <c r="N14">
-        <v>0.8331112752633142</v>
+        <v>1.025757217440822</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7943326122768393</v>
+        <v>1.017918830352268</v>
       </c>
       <c r="D15">
-        <v>0.9820813954205201</v>
+        <v>1.038433482798276</v>
       </c>
       <c r="E15">
-        <v>0.8273209354894572</v>
+        <v>1.018885181983781</v>
       </c>
       <c r="F15">
-        <v>0.935064325844002</v>
+        <v>1.041435621340426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029013221473617</v>
+        <v>1.03324283314287</v>
       </c>
       <c r="J15">
-        <v>0.8355007285206554</v>
+        <v>1.024581911281445</v>
       </c>
       <c r="K15">
-        <v>0.9972754737399446</v>
+        <v>1.041975852525937</v>
       </c>
       <c r="L15">
-        <v>0.8463500631813612</v>
+        <v>1.022500831418701</v>
       </c>
       <c r="M15">
-        <v>0.9512448807559379</v>
+        <v>1.044967006506766</v>
       </c>
       <c r="N15">
-        <v>0.8366872353884278</v>
+        <v>1.026036935116652</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8164757658734025</v>
+        <v>1.019772210711609</v>
       </c>
       <c r="D16">
-        <v>0.9881024223228633</v>
+        <v>1.039055079248084</v>
       </c>
       <c r="E16">
-        <v>0.8460766421285258</v>
+        <v>1.020510117415657</v>
       </c>
       <c r="F16">
-        <v>0.9456087886149268</v>
+        <v>1.0424678571434</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031235338377494</v>
+        <v>1.033398461263366</v>
       </c>
       <c r="J16">
-        <v>0.8543776639162824</v>
+        <v>1.026202546835375</v>
       </c>
       <c r="K16">
-        <v>1.002652545594327</v>
+        <v>1.042481738931503</v>
       </c>
       <c r="L16">
-        <v>0.8638722946112157</v>
+        <v>1.024003761394404</v>
       </c>
       <c r="M16">
-        <v>0.9609949990661983</v>
+        <v>1.045882476141583</v>
       </c>
       <c r="N16">
-        <v>0.8555909781975315</v>
+        <v>1.027659872158959</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8288117811070237</v>
+        <v>1.020930125987429</v>
       </c>
       <c r="D17">
-        <v>0.991557586602835</v>
+        <v>1.03944345146282</v>
       </c>
       <c r="E17">
-        <v>0.8565639805029505</v>
+        <v>1.021525162492551</v>
       </c>
       <c r="F17">
-        <v>0.9516022792847603</v>
+        <v>1.04311276105841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032497010590157</v>
+        <v>1.0334950542015</v>
       </c>
       <c r="J17">
-        <v>0.8649161602761617</v>
+        <v>1.027214680846042</v>
       </c>
       <c r="K17">
-        <v>1.005715279063301</v>
+        <v>1.042797335046335</v>
       </c>
       <c r="L17">
-        <v>0.8736606321009253</v>
+        <v>1.024942236388731</v>
       </c>
       <c r="M17">
-        <v>0.966515668193494</v>
+        <v>1.046453999241556</v>
       </c>
       <c r="N17">
-        <v>0.866144440431024</v>
+        <v>1.028673443516014</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8355742924796384</v>
+        <v>1.021603871191</v>
       </c>
       <c r="D18">
-        <v>0.9934814476241867</v>
+        <v>1.039669434534346</v>
       </c>
       <c r="E18">
-        <v>0.862323820600523</v>
+        <v>1.022115723401003</v>
       </c>
       <c r="F18">
-        <v>0.9549226767664172</v>
+        <v>1.043488002831946</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033195186733507</v>
+        <v>1.033551027057181</v>
       </c>
       <c r="J18">
-        <v>0.870699191155726</v>
+        <v>1.027803467236154</v>
       </c>
       <c r="K18">
-        <v>1.007413656487447</v>
+        <v>1.042980798884484</v>
       </c>
       <c r="L18">
-        <v>0.8790335920878674</v>
+        <v>1.025488119728216</v>
       </c>
       <c r="M18">
-        <v>0.9695676766521713</v>
+        <v>1.046786389467548</v>
       </c>
       <c r="N18">
-        <v>0.8719356838777602</v>
+        <v>1.029263066050335</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8378154645132357</v>
+        <v>1.021833324553149</v>
       </c>
       <c r="D19">
-        <v>0.9941236150161566</v>
+        <v>1.039746396618161</v>
       </c>
       <c r="E19">
-        <v>0.8642343052930007</v>
+        <v>1.022316838000931</v>
       </c>
       <c r="F19">
-        <v>0.9560284200014095</v>
+        <v>1.04361579585441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033427533330747</v>
+        <v>1.033570050137153</v>
       </c>
       <c r="J19">
-        <v>0.8726166102703715</v>
+        <v>1.028003963837764</v>
       </c>
       <c r="K19">
-        <v>1.007979466647559</v>
+        <v>1.043043251092187</v>
       </c>
       <c r="L19">
-        <v>0.8808152729031561</v>
+        <v>1.02567399766788</v>
       </c>
       <c r="M19">
-        <v>0.9705830355618685</v>
+        <v>1.046899562725991</v>
       </c>
       <c r="N19">
-        <v>0.8738558259474798</v>
+        <v>1.029463847380117</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8275352546109205</v>
+        <v>1.020806063741838</v>
       </c>
       <c r="D20">
-        <v>0.991196774920275</v>
+        <v>1.039401839618011</v>
       </c>
       <c r="E20">
-        <v>0.8554775591972613</v>
+        <v>1.021416413305802</v>
       </c>
       <c r="F20">
-        <v>0.9509782403513302</v>
+        <v>1.043043664414613</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032365723616559</v>
+        <v>1.033484728830272</v>
       </c>
       <c r="J20">
-        <v>0.8638249777340837</v>
+        <v>1.027106251918156</v>
       </c>
       <c r="K20">
-        <v>1.005396205042038</v>
+        <v>1.042763538642224</v>
       </c>
       <c r="L20">
-        <v>0.872646944228176</v>
+        <v>1.024841704023308</v>
       </c>
       <c r="M20">
-        <v>0.9659415612321721</v>
+        <v>1.04639278079879</v>
       </c>
       <c r="N20">
-        <v>0.865051708284576</v>
+        <v>1.028564860606613</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7880816488430805</v>
+        <v>1.017446750448149</v>
       </c>
       <c r="D21">
-        <v>0.9804248476717294</v>
+        <v>1.038275165226816</v>
       </c>
       <c r="E21">
-        <v>0.8220436114212145</v>
+        <v>1.018471244939126</v>
       </c>
       <c r="F21">
-        <v>0.9321391842046082</v>
+        <v>1.04117270299529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028396657897527</v>
+        <v>1.033202996432195</v>
       </c>
       <c r="J21">
-        <v>0.8301821362463047</v>
+        <v>1.024168999688149</v>
       </c>
       <c r="K21">
-        <v>0.9957868160567587</v>
+        <v>1.041846856617615</v>
       </c>
       <c r="L21">
-        <v>0.8414161075099534</v>
+        <v>1.02211786337217</v>
       </c>
       <c r="M21">
-        <v>0.9485313078637622</v>
+        <v>1.044733696148333</v>
       </c>
       <c r="N21">
-        <v>0.8313610901029963</v>
+        <v>1.025623437141532</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7551571074132692</v>
+        <v>1.015319071355637</v>
       </c>
       <c r="D22">
-        <v>0.9720244439612287</v>
+        <v>1.037561699762283</v>
       </c>
       <c r="E22">
-        <v>0.7943890738297561</v>
+        <v>1.016605399262648</v>
       </c>
       <c r="F22">
-        <v>0.9171260371753094</v>
+        <v>1.039987771924169</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025235242326527</v>
+        <v>1.03302248971974</v>
       </c>
       <c r="J22">
-        <v>0.8022558995112529</v>
+        <v>1.022307430109942</v>
       </c>
       <c r="K22">
-        <v>0.9881712474529728</v>
+        <v>1.041264793079611</v>
       </c>
       <c r="L22">
-        <v>0.8155353542878871</v>
+        <v>1.020391065031226</v>
       </c>
       <c r="M22">
-        <v>0.9345397147494067</v>
+        <v>1.043681544494518</v>
       </c>
       <c r="N22">
-        <v>0.8033951949085968</v>
+        <v>1.023759223920999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7737677176610196</v>
+        <v>1.016448502625923</v>
       </c>
       <c r="D23">
-        <v>0.9767049593900233</v>
+        <v>1.037940410023395</v>
       </c>
       <c r="E23">
-        <v>0.8099904164250182</v>
+        <v>1.017595885999345</v>
       </c>
       <c r="F23">
-        <v>0.9255295475321879</v>
+        <v>1.040616754553906</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027003931439705</v>
+        <v>1.033118501856372</v>
       </c>
       <c r="J23">
-        <v>0.8180222929121586</v>
+        <v>1.02329571703134</v>
       </c>
       <c r="K23">
-        <v>0.9924285766213655</v>
+        <v>1.041573904104397</v>
       </c>
       <c r="L23">
-        <v>0.8301412468636435</v>
+        <v>1.021307849122722</v>
       </c>
       <c r="M23">
-        <v>0.9423850188760957</v>
+        <v>1.044240178955292</v>
       </c>
       <c r="N23">
-        <v>0.8191839783965624</v>
+        <v>1.024748914323184</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8281133708799135</v>
+        <v>1.020862127214527</v>
       </c>
       <c r="D24">
-        <v>0.9913600873288072</v>
+        <v>1.03942064391155</v>
       </c>
       <c r="E24">
-        <v>0.8559695468012073</v>
+        <v>1.0214655570053</v>
       </c>
       <c r="F24">
-        <v>0.9512607480931369</v>
+        <v>1.043074889053695</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032425160913152</v>
+        <v>1.033489395558376</v>
       </c>
       <c r="J24">
-        <v>0.864319136760564</v>
+        <v>1.027155251142865</v>
       </c>
       <c r="K24">
-        <v>1.005540647612636</v>
+        <v>1.042778811691287</v>
       </c>
       <c r="L24">
-        <v>0.8731060037214323</v>
+        <v>1.024887134943165</v>
       </c>
       <c r="M24">
-        <v>0.9662014844019008</v>
+        <v>1.046420445771741</v>
       </c>
       <c r="N24">
-        <v>0.8655465690735549</v>
+        <v>1.028613929415842</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8735643172242272</v>
+        <v>1.025919616574523</v>
       </c>
       <c r="D25">
-        <v>1.004664056400768</v>
+        <v>1.041116950317891</v>
       </c>
       <c r="E25">
-        <v>0.8948069738565119</v>
+        <v>1.02589763533318</v>
       </c>
       <c r="F25">
-        <v>0.974008268077586</v>
+        <v>1.045891479363127</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037189412615567</v>
+        <v>1.033905379982178</v>
       </c>
       <c r="J25">
-        <v>0.9032498262969976</v>
+        <v>1.0315725689915</v>
       </c>
       <c r="K25">
-        <v>1.017190397808787</v>
+        <v>1.044152863158772</v>
       </c>
       <c r="L25">
-        <v>0.909291923004668</v>
+        <v>1.028981613622999</v>
       </c>
       <c r="M25">
-        <v>0.9870239340578593</v>
+        <v>1.048912628104409</v>
       </c>
       <c r="N25">
-        <v>0.9045325446545421</v>
+        <v>1.033037520362495</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029905206023092</v>
+        <v>0.9029488167478489</v>
       </c>
       <c r="D2">
-        <v>1.04245337638738</v>
+        <v>1.013721669161465</v>
       </c>
       <c r="E2">
-        <v>1.029388595231997</v>
+        <v>0.9200561239193741</v>
       </c>
       <c r="F2">
-        <v>1.048110510162208</v>
+        <v>0.9892333664042109</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034225811694147</v>
+        <v>1.040337826329482</v>
       </c>
       <c r="J2">
-        <v>1.035049396683044</v>
+        <v>0.9284778016419659</v>
       </c>
       <c r="K2">
-        <v>1.045230020795166</v>
+        <v>1.024993092806677</v>
       </c>
       <c r="L2">
-        <v>1.032202650128811</v>
+        <v>0.9327542551424576</v>
       </c>
       <c r="M2">
-        <v>1.050871269485186</v>
+        <v>1.000844763788679</v>
       </c>
       <c r="N2">
-        <v>1.036519285548159</v>
+        <v>0.9297963466181894</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032772830575595</v>
+        <v>0.9217713702361084</v>
       </c>
       <c r="D3">
-        <v>1.043414495662642</v>
+        <v>1.019693622922147</v>
       </c>
       <c r="E3">
-        <v>1.031899272155623</v>
+        <v>0.9362751560950096</v>
       </c>
       <c r="F3">
-        <v>1.049706511162192</v>
+        <v>0.9991749556206331</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034452015615956</v>
+        <v>1.042365561527735</v>
       </c>
       <c r="J3">
-        <v>1.037548471238826</v>
+        <v>0.9446483070380742</v>
       </c>
       <c r="K3">
-        <v>1.04600158099811</v>
+        <v>1.030080571696627</v>
       </c>
       <c r="L3">
-        <v>1.034516885772671</v>
+        <v>0.9477940158567209</v>
       </c>
       <c r="M3">
-        <v>1.052277221066201</v>
+        <v>1.009818403939788</v>
       </c>
       <c r="N3">
-        <v>1.039021909076458</v>
+        <v>0.9459898159867437</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034616769315617</v>
+        <v>0.9330644881437193</v>
       </c>
       <c r="D4">
-        <v>1.044032237793513</v>
+        <v>1.023335336640835</v>
       </c>
       <c r="E4">
-        <v>1.033513183124531</v>
+        <v>0.9460203387608246</v>
       </c>
       <c r="F4">
-        <v>1.05073242178859</v>
+        <v>1.005204043299836</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034595437192268</v>
+        <v>1.043581162064157</v>
       </c>
       <c r="J4">
-        <v>1.039154262702065</v>
+        <v>0.9543505451989527</v>
       </c>
       <c r="K4">
-        <v>1.046496058063569</v>
+        <v>1.033160051869505</v>
       </c>
       <c r="L4">
-        <v>1.036003453037635</v>
+        <v>0.9568170806738192</v>
       </c>
       <c r="M4">
-        <v>1.053179691866135</v>
+        <v>1.015240063265839</v>
       </c>
       <c r="N4">
-        <v>1.040629980947761</v>
+        <v>0.9557058324386727</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035389261183599</v>
+        <v>0.9376298488414799</v>
       </c>
       <c r="D5">
-        <v>1.044290954935468</v>
+        <v>1.024819335079792</v>
       </c>
       <c r="E5">
-        <v>1.034189185804352</v>
+        <v>0.9499625733805646</v>
       </c>
       <c r="F5">
-        <v>1.051162117410158</v>
+        <v>1.007654203978548</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034655031764992</v>
+        <v>1.044071632146391</v>
       </c>
       <c r="J5">
-        <v>1.03982670665717</v>
+        <v>0.9582723478665534</v>
       </c>
       <c r="K5">
-        <v>1.046702808737662</v>
+        <v>1.034409834669365</v>
       </c>
       <c r="L5">
-        <v>1.036625861268074</v>
+        <v>0.960464049525264</v>
       </c>
       <c r="M5">
-        <v>1.053557380616171</v>
+        <v>1.017438813750015</v>
       </c>
       <c r="N5">
-        <v>1.041303379850413</v>
+        <v>0.9596332045158986</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035518809896693</v>
+        <v>0.9383864413981838</v>
       </c>
       <c r="D6">
-        <v>1.044334337570396</v>
+        <v>1.025065906646324</v>
       </c>
       <c r="E6">
-        <v>1.034302545824282</v>
+        <v>0.9506160358070135</v>
       </c>
       <c r="F6">
-        <v>1.051234172477912</v>
+        <v>1.008060945988625</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034664997081711</v>
+        <v>1.04415284085823</v>
       </c>
       <c r="J6">
-        <v>1.039939460667169</v>
+        <v>0.9589222493865347</v>
       </c>
       <c r="K6">
-        <v>1.046737457411951</v>
+        <v>1.034617199481184</v>
       </c>
       <c r="L6">
-        <v>1.036730218978437</v>
+        <v>0.9610683861791638</v>
       </c>
       <c r="M6">
-        <v>1.053620696847821</v>
+        <v>1.017803560169535</v>
       </c>
       <c r="N6">
-        <v>1.04141629398404</v>
+        <v>0.960284028970583</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034627101894855</v>
+        <v>0.9331261727276394</v>
       </c>
       <c r="D7">
-        <v>1.044035698620732</v>
+        <v>1.023355343238874</v>
       </c>
       <c r="E7">
-        <v>1.03352222558203</v>
+        <v>0.9460735943356153</v>
       </c>
       <c r="F7">
-        <v>1.050738169634745</v>
+        <v>1.005237100346948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034596236240087</v>
+        <v>1.043587793659558</v>
       </c>
       <c r="J7">
-        <v>1.03916325817696</v>
+        <v>0.9544035366781973</v>
       </c>
       <c r="K7">
-        <v>1.046498825085842</v>
+        <v>1.033176920744796</v>
       </c>
       <c r="L7">
-        <v>1.036011779600371</v>
+        <v>0.9568663599368273</v>
       </c>
       <c r="M7">
-        <v>1.053184745238929</v>
+        <v>1.015269746096397</v>
       </c>
       <c r="N7">
-        <v>1.040638989197263</v>
+        <v>0.9557588991718963</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030876784060089</v>
+        <v>0.9095141280867672</v>
       </c>
       <c r="D8">
-        <v>1.042779063413478</v>
+        <v>1.015790306599716</v>
       </c>
       <c r="E8">
-        <v>1.030239339667297</v>
+        <v>0.9257097132268652</v>
       </c>
       <c r="F8">
-        <v>1.048651315937416</v>
+        <v>0.992685139698481</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034302872184683</v>
+        <v>1.04104481764828</v>
       </c>
       <c r="J8">
-        <v>1.035896347512111</v>
+        <v>0.9341176543516073</v>
       </c>
       <c r="K8">
-        <v>1.045491771049145</v>
+        <v>1.026760553176777</v>
       </c>
       <c r="L8">
-        <v>1.032987052528538</v>
+        <v>0.9379998001908822</v>
       </c>
       <c r="M8">
-        <v>1.051347942623944</v>
+        <v>1.00396511565685</v>
       </c>
       <c r="N8">
-        <v>1.037367439144551</v>
+        <v>0.9354442085655791</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024175765070426</v>
+        <v>0.8591645662655071</v>
       </c>
       <c r="D9">
-        <v>1.040532079170092</v>
+        <v>1.000352390773737</v>
       </c>
       <c r="E9">
-        <v>1.024369699759634</v>
+        <v>0.8824710201677656</v>
       </c>
       <c r="F9">
-        <v>1.044920364235416</v>
+        <v>0.9666904468738599</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033763087697685</v>
+        <v>1.035662648893598</v>
       </c>
       <c r="J9">
-        <v>1.030050114205575</v>
+        <v>0.8909007889601952</v>
       </c>
       <c r="K9">
-        <v>1.043679943256614</v>
+        <v>1.013439753269565</v>
       </c>
       <c r="L9">
-        <v>1.027570689760299</v>
+        <v>0.8978099009738642</v>
       </c>
       <c r="M9">
-        <v>1.048054114613087</v>
+        <v>0.9803481012125767</v>
       </c>
       <c r="N9">
-        <v>1.031512903516147</v>
+        <v>0.8921659702682677</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019641129920965</v>
+        <v>0.8150152432129444</v>
       </c>
       <c r="D10">
-        <v>1.039011114839104</v>
+        <v>0.9876980598507484</v>
       </c>
       <c r="E10">
-        <v>1.020395202881001</v>
+        <v>0.8448367428138954</v>
       </c>
       <c r="F10">
-        <v>1.04239485135655</v>
+        <v>0.9449047274088425</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033387495338198</v>
+        <v>1.031087036259988</v>
       </c>
       <c r="J10">
-        <v>1.026087950884335</v>
+        <v>0.8531309423811667</v>
       </c>
       <c r="K10">
-        <v>1.042445989439899</v>
+        <v>1.002293039710073</v>
       </c>
       <c r="L10">
-        <v>1.023897498012934</v>
+        <v>0.8627145862501803</v>
       </c>
       <c r="M10">
-        <v>1.045817756401392</v>
+        <v>0.9603454837219149</v>
       </c>
       <c r="N10">
-        <v>1.027545113468524</v>
+        <v>0.8543424861748349</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.017660458292697</v>
+        <v>0.7909478919320384</v>
       </c>
       <c r="D11">
-        <v>1.038346834019006</v>
+        <v>0.9811820256019017</v>
       </c>
       <c r="E11">
-        <v>1.018658634070494</v>
+        <v>0.8244624172365597</v>
       </c>
       <c r="F11">
-        <v>1.041291724228018</v>
+        <v>0.9334775657347437</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033221040019471</v>
+        <v>1.028678756101777</v>
       </c>
       <c r="J11">
-        <v>1.024355928084862</v>
+        <v>0.8326202583418936</v>
       </c>
       <c r="K11">
-        <v>1.041905259218235</v>
+        <v>0.9964677662051769</v>
       </c>
       <c r="L11">
-        <v>1.02229123836904</v>
+        <v>0.8436777314862095</v>
       </c>
       <c r="M11">
-        <v>1.044839320702631</v>
+        <v>0.9497733735883217</v>
       </c>
       <c r="N11">
-        <v>1.025810630998009</v>
+        <v>0.8338026746116174</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016922070858163</v>
+        <v>0.7807630329695207</v>
       </c>
       <c r="D12">
-        <v>1.038099214286916</v>
+        <v>0.9785100328408139</v>
       </c>
       <c r="E12">
-        <v>1.018011165627941</v>
+        <v>0.8158753258713602</v>
       </c>
       <c r="F12">
-        <v>1.040880493968373</v>
+        <v>0.9287441475959904</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033158629257308</v>
+        <v>1.027681170744553</v>
       </c>
       <c r="J12">
-        <v>1.023710027205955</v>
+        <v>0.8239614643394114</v>
       </c>
       <c r="K12">
-        <v>1.041703422984996</v>
+        <v>0.9940608619339993</v>
       </c>
       <c r="L12">
-        <v>1.021692153126457</v>
+        <v>0.8356471573340586</v>
       </c>
       <c r="M12">
-        <v>1.044474330889916</v>
+        <v>0.9453768576389789</v>
       </c>
       <c r="N12">
-        <v>1.025163812865769</v>
+        <v>0.8251315841284741</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01708058031561</v>
+        <v>0.7830187134867864</v>
       </c>
       <c r="D13">
-        <v>1.038152369555341</v>
+        <v>0.9790973458604103</v>
       </c>
       <c r="E13">
-        <v>1.018150161184614</v>
+        <v>0.8177752406083347</v>
       </c>
       <c r="F13">
-        <v>1.040968771918835</v>
+        <v>0.9297870878983147</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033172043034136</v>
+        <v>1.027900944833694</v>
       </c>
       <c r="J13">
-        <v>1.023848692018978</v>
+        <v>0.8258779983978469</v>
       </c>
       <c r="K13">
-        <v>1.041746762447812</v>
+        <v>0.9945908494924326</v>
       </c>
       <c r="L13">
-        <v>1.021820771131214</v>
+        <v>0.8374243000095245</v>
       </c>
       <c r="M13">
-        <v>1.044552693494984</v>
+        <v>0.9463464662461234</v>
       </c>
       <c r="N13">
-        <v>1.025302674598731</v>
+        <v>0.8270508398851022</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017599478183953</v>
+        <v>0.7901363622764821</v>
       </c>
       <c r="D14">
-        <v>1.03832638369336</v>
+        <v>0.9809672303074076</v>
       </c>
       <c r="E14">
-        <v>1.018605164205062</v>
+        <v>0.8237773995237622</v>
       </c>
       <c r="F14">
-        <v>1.041257762245263</v>
+        <v>0.9330981285259687</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033215893041446</v>
+        <v>1.028598778441132</v>
       </c>
       <c r="J14">
-        <v>1.024302590273485</v>
+        <v>0.8319298394675879</v>
       </c>
       <c r="K14">
-        <v>1.041888595585226</v>
+        <v>0.9962746831091807</v>
       </c>
       <c r="L14">
-        <v>1.022241768245003</v>
+        <v>0.8430372622640403</v>
       </c>
       <c r="M14">
-        <v>1.044809182499372</v>
+        <v>0.949421326035912</v>
       </c>
       <c r="N14">
-        <v>1.025757217440822</v>
+        <v>0.8331112752633182</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017918830352268</v>
+        <v>0.7943326122768413</v>
       </c>
       <c r="D15">
-        <v>1.038433482798276</v>
+        <v>0.982081395420521</v>
       </c>
       <c r="E15">
-        <v>1.018885181983781</v>
+        <v>0.8273209354894592</v>
       </c>
       <c r="F15">
-        <v>1.041435621340426</v>
+        <v>0.935064325844003</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03324283314287</v>
+        <v>1.029013221473618</v>
       </c>
       <c r="J15">
-        <v>1.024581911281445</v>
+        <v>0.8355007285206573</v>
       </c>
       <c r="K15">
-        <v>1.041975852525937</v>
+        <v>0.9972754737399454</v>
       </c>
       <c r="L15">
-        <v>1.022500831418701</v>
+        <v>0.8463500631813631</v>
       </c>
       <c r="M15">
-        <v>1.044967006506766</v>
+        <v>0.9512448807559389</v>
       </c>
       <c r="N15">
-        <v>1.026036935116652</v>
+        <v>0.8366872353884296</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019772210711609</v>
+        <v>0.8164757658734009</v>
       </c>
       <c r="D16">
-        <v>1.039055079248084</v>
+        <v>0.9881024223228628</v>
       </c>
       <c r="E16">
-        <v>1.020510117415657</v>
+        <v>0.8460766421285244</v>
       </c>
       <c r="F16">
-        <v>1.0424678571434</v>
+        <v>0.9456087886149261</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033398461263366</v>
+        <v>1.031235338377494</v>
       </c>
       <c r="J16">
-        <v>1.026202546835375</v>
+        <v>0.8543776639162812</v>
       </c>
       <c r="K16">
-        <v>1.042481738931503</v>
+        <v>1.002652545594327</v>
       </c>
       <c r="L16">
-        <v>1.024003761394404</v>
+        <v>0.8638722946112145</v>
       </c>
       <c r="M16">
-        <v>1.045882476141583</v>
+        <v>0.9609949990661978</v>
       </c>
       <c r="N16">
-        <v>1.027659872158959</v>
+        <v>0.8555909781975299</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020930125987429</v>
+        <v>0.8288117811070241</v>
       </c>
       <c r="D17">
-        <v>1.03944345146282</v>
+        <v>0.991557586602835</v>
       </c>
       <c r="E17">
-        <v>1.021525162492551</v>
+        <v>0.8565639805029509</v>
       </c>
       <c r="F17">
-        <v>1.04311276105841</v>
+        <v>0.9516022792847604</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0334950542015</v>
+        <v>1.032497010590157</v>
       </c>
       <c r="J17">
-        <v>1.027214680846042</v>
+        <v>0.8649161602761618</v>
       </c>
       <c r="K17">
-        <v>1.042797335046335</v>
+        <v>1.005715279063301</v>
       </c>
       <c r="L17">
-        <v>1.024942236388731</v>
+        <v>0.8736606321009257</v>
       </c>
       <c r="M17">
-        <v>1.046453999241556</v>
+        <v>0.9665156681934942</v>
       </c>
       <c r="N17">
-        <v>1.028673443516014</v>
+        <v>0.8661444404310242</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021603871191</v>
+        <v>0.8355742924796363</v>
       </c>
       <c r="D18">
-        <v>1.039669434534346</v>
+        <v>0.9934814476241859</v>
       </c>
       <c r="E18">
-        <v>1.022115723401003</v>
+        <v>0.8623238206005209</v>
       </c>
       <c r="F18">
-        <v>1.043488002831946</v>
+        <v>0.9549226767664158</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033551027057181</v>
+        <v>1.033195186733506</v>
       </c>
       <c r="J18">
-        <v>1.027803467236154</v>
+        <v>0.8706991911557241</v>
       </c>
       <c r="K18">
-        <v>1.042980798884484</v>
+        <v>1.007413656487446</v>
       </c>
       <c r="L18">
-        <v>1.025488119728216</v>
+        <v>0.8790335920878654</v>
       </c>
       <c r="M18">
-        <v>1.046786389467548</v>
+        <v>0.9695676766521701</v>
       </c>
       <c r="N18">
-        <v>1.029263066050335</v>
+        <v>0.8719356838777584</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021833324553149</v>
+        <v>0.8378154645132345</v>
       </c>
       <c r="D19">
-        <v>1.039746396618161</v>
+        <v>0.9941236150161562</v>
       </c>
       <c r="E19">
-        <v>1.022316838000931</v>
+        <v>0.8642343052929998</v>
       </c>
       <c r="F19">
-        <v>1.04361579585441</v>
+        <v>0.9560284200014091</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033570050137153</v>
+        <v>1.033427533330747</v>
       </c>
       <c r="J19">
-        <v>1.028003963837764</v>
+        <v>0.8726166102703705</v>
       </c>
       <c r="K19">
-        <v>1.043043251092187</v>
+        <v>1.007979466647559</v>
       </c>
       <c r="L19">
-        <v>1.02567399766788</v>
+        <v>0.8808152729031552</v>
       </c>
       <c r="M19">
-        <v>1.046899562725991</v>
+        <v>0.9705830355618679</v>
       </c>
       <c r="N19">
-        <v>1.029463847380117</v>
+        <v>0.8738558259474786</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020806063741838</v>
+        <v>0.8275352546109195</v>
       </c>
       <c r="D20">
-        <v>1.039401839618011</v>
+        <v>0.9911967749202749</v>
       </c>
       <c r="E20">
-        <v>1.021416413305802</v>
+        <v>0.8554775591972608</v>
       </c>
       <c r="F20">
-        <v>1.043043664414613</v>
+        <v>0.9509782403513299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033484728830272</v>
+        <v>1.032365723616559</v>
       </c>
       <c r="J20">
-        <v>1.027106251918156</v>
+        <v>0.863824977734083</v>
       </c>
       <c r="K20">
-        <v>1.042763538642224</v>
+        <v>1.005396205042038</v>
       </c>
       <c r="L20">
-        <v>1.024841704023308</v>
+        <v>0.8726469442281752</v>
       </c>
       <c r="M20">
-        <v>1.04639278079879</v>
+        <v>0.9659415612321717</v>
       </c>
       <c r="N20">
-        <v>1.028564860606613</v>
+        <v>0.8650517082845751</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017446750448149</v>
+        <v>0.7880816488430828</v>
       </c>
       <c r="D21">
-        <v>1.038275165226816</v>
+        <v>0.9804248476717293</v>
       </c>
       <c r="E21">
-        <v>1.018471244939126</v>
+        <v>0.8220436114212163</v>
       </c>
       <c r="F21">
-        <v>1.04117270299529</v>
+        <v>0.9321391842046091</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033202996432195</v>
+        <v>1.028396657897527</v>
       </c>
       <c r="J21">
-        <v>1.024168999688149</v>
+        <v>0.8301821362463069</v>
       </c>
       <c r="K21">
-        <v>1.041846856617615</v>
+        <v>0.9957868160567588</v>
       </c>
       <c r="L21">
-        <v>1.02211786337217</v>
+        <v>0.8414161075099552</v>
       </c>
       <c r="M21">
-        <v>1.044733696148333</v>
+        <v>0.9485313078637628</v>
       </c>
       <c r="N21">
-        <v>1.025623437141532</v>
+        <v>0.8313610901029986</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015319071355637</v>
+        <v>0.7551571074132731</v>
       </c>
       <c r="D22">
-        <v>1.037561699762283</v>
+        <v>0.9720244439612302</v>
       </c>
       <c r="E22">
-        <v>1.016605399262648</v>
+        <v>0.7943890738297595</v>
       </c>
       <c r="F22">
-        <v>1.039987771924169</v>
+        <v>0.9171260371753118</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03302248971974</v>
+        <v>1.025235242326528</v>
       </c>
       <c r="J22">
-        <v>1.022307430109942</v>
+        <v>0.8022558995112564</v>
       </c>
       <c r="K22">
-        <v>1.041264793079611</v>
+        <v>0.9881712474529744</v>
       </c>
       <c r="L22">
-        <v>1.020391065031226</v>
+        <v>0.8155353542878905</v>
       </c>
       <c r="M22">
-        <v>1.043681544494518</v>
+        <v>0.9345397147494092</v>
       </c>
       <c r="N22">
-        <v>1.023759223920999</v>
+        <v>0.8033951949086003</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016448502625923</v>
+        <v>0.7737677176610223</v>
       </c>
       <c r="D23">
-        <v>1.037940410023395</v>
+        <v>0.9767049593900244</v>
       </c>
       <c r="E23">
-        <v>1.017595885999345</v>
+        <v>0.8099904164250205</v>
       </c>
       <c r="F23">
-        <v>1.040616754553906</v>
+        <v>0.9255295475321895</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033118501856372</v>
+        <v>1.027003931439706</v>
       </c>
       <c r="J23">
-        <v>1.02329571703134</v>
+        <v>0.818022292912161</v>
       </c>
       <c r="K23">
-        <v>1.041573904104397</v>
+        <v>0.9924285766213667</v>
       </c>
       <c r="L23">
-        <v>1.021307849122722</v>
+        <v>0.8301412468636457</v>
       </c>
       <c r="M23">
-        <v>1.044240178955292</v>
+        <v>0.9423850188760974</v>
       </c>
       <c r="N23">
-        <v>1.024748914323184</v>
+        <v>0.8191839783965648</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020862127214527</v>
+        <v>0.8281133708799138</v>
       </c>
       <c r="D24">
-        <v>1.03942064391155</v>
+        <v>0.9913600873288068</v>
       </c>
       <c r="E24">
-        <v>1.0214655570053</v>
+        <v>0.8559695468012078</v>
       </c>
       <c r="F24">
-        <v>1.043074889053695</v>
+        <v>0.9512607480931365</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033489395558376</v>
+        <v>1.032425160913152</v>
       </c>
       <c r="J24">
-        <v>1.027155251142865</v>
+        <v>0.8643191367605642</v>
       </c>
       <c r="K24">
-        <v>1.042778811691287</v>
+        <v>1.005540647612635</v>
       </c>
       <c r="L24">
-        <v>1.024887134943165</v>
+        <v>0.8731060037214327</v>
       </c>
       <c r="M24">
-        <v>1.046420445771741</v>
+        <v>0.9662014844019005</v>
       </c>
       <c r="N24">
-        <v>1.028613929415842</v>
+        <v>0.8655465690735549</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025919616574523</v>
+        <v>0.8735643172242307</v>
       </c>
       <c r="D25">
-        <v>1.041116950317891</v>
+        <v>1.004664056400769</v>
       </c>
       <c r="E25">
-        <v>1.02589763533318</v>
+        <v>0.8948069738565151</v>
       </c>
       <c r="F25">
-        <v>1.045891479363127</v>
+        <v>0.9740082680775877</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033905379982178</v>
+        <v>1.037189412615567</v>
       </c>
       <c r="J25">
-        <v>1.0315725689915</v>
+        <v>0.9032498262970009</v>
       </c>
       <c r="K25">
-        <v>1.044152863158772</v>
+        <v>1.017190397808788</v>
       </c>
       <c r="L25">
-        <v>1.028981613622999</v>
+        <v>0.9092919230046711</v>
       </c>
       <c r="M25">
-        <v>1.048912628104409</v>
+        <v>0.9870239340578608</v>
       </c>
       <c r="N25">
-        <v>1.033037520362495</v>
+        <v>0.9045325446545458</v>
       </c>
     </row>
   </sheetData>
